--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechProEd\IdeaProjects\B129SeleniumMavenJunit2\src\test\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehmet\IdeaProjects\B129SeleniumMavenJunit\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA98AA9-95A8-4F6D-A323-18A766E34A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -87,12 +86,22 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>712816</t>
+  </si>
+  <si>
+    <t>5663000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -350,59 +359,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="n" s="0">
+        <v>2161000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="n" s="0">
+        <v>8982000.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="0"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -410,7 +432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -418,7 +440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -426,7 +448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -434,7 +456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -442,7 +464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -456,14 +478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC97A64-30C6-4CC4-8A88-2107D068E41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehmet\IdeaProjects\B129SeleniumMavenJunit\src\test\java\resources\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -86,22 +86,12 @@
   </si>
   <si>
     <t>Oslo</t>
-  </si>
-  <si>
-    <t>NUFUS</t>
-  </si>
-  <si>
-    <t>712816</t>
-  </si>
-  <si>
-    <t>5663000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -363,10 +353,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -378,9 +368,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -389,9 +376,6 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -400,9 +384,6 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>2161000.0</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -411,9 +392,6 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>8982000.0</v>
-      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -422,7 +400,6 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -471,6 +448,9 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
